--- a/for_xlsx/template.xlsx
+++ b/for_xlsx/template.xlsx
@@ -2,20 +2,20 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr showInkAnnotation="0" defaultThemeVersion="153222"/>
+  <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vitalii.martynenko\simpleAsk\for_xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python-app\simpleAsk\with diop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1800" windowWidth="24000" windowHeight="9870"/>
+    <workbookView xWindow="-120" yWindow="1680" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="л1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">л1!$A$1:$AN$16</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">л1!$A$1:$AP$16</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -33,7 +33,7 @@
     <author>Мартиненко Віталій Олександрович</author>
   </authors>
   <commentList>
-    <comment ref="AM5" authorId="0" shapeId="0">
+    <comment ref="AO5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -124,7 +124,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="75">
   <si>
     <t>Заявка на початок будівництва та ведення тех.нагляду</t>
   </si>
@@ -364,6 +364,12 @@
   </si>
   <si>
     <t>Головному інженеру АТ "Київоблгаз"</t>
+  </si>
+  <si>
+    <t>№ реєстрації в Держпраці</t>
+  </si>
+  <si>
+    <t>Дата реєстрації в Держпраці</t>
   </si>
 </sst>
 </file>
@@ -551,7 +557,7 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -581,9 +587,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -606,6 +609,12 @@
     <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -634,9 +643,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -655,80 +661,84 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гіперпосилання" xfId="2" builtinId="8"/>
     <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
     <cellStyle name="Фінансовий" xfId="1" builtinId="3"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -747,6 +757,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF00FF00"/>
       <color rgb="FFFF9999"/>
     </mruColors>
   </colors>
@@ -764,7 +775,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -802,7 +813,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -874,7 +885,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1027,10 +1038,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:AU27"/>
+  <dimension ref="A1:AW27"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1045,34 +1056,36 @@
     <col min="8" max="8" width="16" customWidth="1"/>
     <col min="9" max="9" width="8.85546875" customWidth="1"/>
     <col min="10" max="10" width="9" customWidth="1"/>
-    <col min="11" max="11" width="15.7109375" customWidth="1"/>
-    <col min="12" max="12" width="28.140625" customWidth="1"/>
-    <col min="13" max="13" width="5.42578125" customWidth="1"/>
-    <col min="14" max="14" width="4.85546875" customWidth="1"/>
+    <col min="11" max="11" width="10" customWidth="1"/>
+    <col min="12" max="12" width="9" customWidth="1"/>
+    <col min="13" max="13" width="15.7109375" customWidth="1"/>
+    <col min="14" max="14" width="25.28515625" customWidth="1"/>
     <col min="15" max="15" width="5.42578125" customWidth="1"/>
-    <col min="16" max="18" width="5" customWidth="1"/>
-    <col min="19" max="19" width="6" customWidth="1"/>
-    <col min="20" max="21" width="5.5703125" customWidth="1"/>
-    <col min="22" max="22" width="6" customWidth="1"/>
-    <col min="23" max="23" width="5.85546875" customWidth="1"/>
-    <col min="24" max="24" width="6.140625" customWidth="1"/>
-    <col min="25" max="26" width="6.42578125" customWidth="1"/>
-    <col min="27" max="27" width="7.28515625" customWidth="1"/>
-    <col min="28" max="28" width="3.85546875" customWidth="1"/>
-    <col min="29" max="29" width="6.5703125" customWidth="1"/>
+    <col min="16" max="16" width="4.85546875" customWidth="1"/>
+    <col min="17" max="17" width="5.42578125" customWidth="1"/>
+    <col min="18" max="20" width="5" customWidth="1"/>
+    <col min="21" max="21" width="6" customWidth="1"/>
+    <col min="22" max="23" width="5.5703125" customWidth="1"/>
+    <col min="24" max="24" width="6" customWidth="1"/>
+    <col min="25" max="25" width="5.85546875" customWidth="1"/>
+    <col min="26" max="26" width="6.140625" customWidth="1"/>
+    <col min="27" max="28" width="6.42578125" customWidth="1"/>
+    <col min="29" max="29" width="7.28515625" customWidth="1"/>
     <col min="30" max="30" width="3.85546875" customWidth="1"/>
-    <col min="31" max="31" width="10" customWidth="1"/>
-    <col min="32" max="32" width="8.140625" customWidth="1"/>
-    <col min="33" max="33" width="6.140625" customWidth="1"/>
-    <col min="34" max="34" width="5" customWidth="1"/>
-    <col min="35" max="35" width="7.28515625" customWidth="1"/>
-    <col min="36" max="36" width="4.28515625" customWidth="1"/>
-    <col min="37" max="37" width="5" customWidth="1"/>
-    <col min="38" max="38" width="3.5703125" customWidth="1"/>
-    <col min="47" max="47" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="6.5703125" customWidth="1"/>
+    <col min="32" max="32" width="3.85546875" customWidth="1"/>
+    <col min="33" max="33" width="10" customWidth="1"/>
+    <col min="34" max="34" width="8.140625" customWidth="1"/>
+    <col min="35" max="35" width="6.140625" customWidth="1"/>
+    <col min="36" max="36" width="5" customWidth="1"/>
+    <col min="37" max="37" width="7.28515625" customWidth="1"/>
+    <col min="38" max="38" width="4.28515625" customWidth="1"/>
+    <col min="39" max="39" width="5" customWidth="1"/>
+    <col min="40" max="40" width="3.5703125" customWidth="1"/>
+    <col min="49" max="49" width="23.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:49" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -1081,14 +1094,14 @@
       <c r="F1" s="10"/>
       <c r="G1" s="10"/>
       <c r="H1" s="10"/>
-      <c r="I1" s="53" t="s">
+      <c r="I1" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
       <c r="O1" s="10"/>
       <c r="P1" s="10"/>
       <c r="Q1" s="10"/>
@@ -1115,8 +1128,10 @@
       <c r="AL1" s="10"/>
       <c r="AM1" s="10"/>
       <c r="AN1" s="10"/>
-    </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="AO1" s="10"/>
+      <c r="AP1" s="10"/>
+    </row>
+    <row r="2" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -1127,9 +1142,9 @@
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
-      <c r="K2" s="20"/>
+      <c r="K2" s="10"/>
       <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
+      <c r="M2" s="21"/>
       <c r="N2" s="10"/>
       <c r="O2" s="10"/>
       <c r="P2" s="10"/>
@@ -1157,26 +1172,28 @@
       <c r="AL2" s="10"/>
       <c r="AM2" s="10"/>
       <c r="AN2" s="10"/>
-    </row>
-    <row r="3" spans="1:47" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AO2" s="10"/>
+      <c r="AP2" s="10"/>
+    </row>
+    <row r="3" spans="1:49" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="10"/>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
@@ -1199,13 +1216,15 @@
       <c r="AJ3" s="2"/>
       <c r="AK3" s="2"/>
       <c r="AL3" s="2"/>
-      <c r="AM3" s="10"/>
-      <c r="AN3" s="10"/>
-      <c r="AU3" s="13" t="s">
+      <c r="AM3" s="2"/>
+      <c r="AN3" s="2"/>
+      <c r="AO3" s="10"/>
+      <c r="AP3" s="10"/>
+      <c r="AW3" s="12" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A4" s="10"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
@@ -1246,417 +1265,435 @@
       <c r="AL4" s="10"/>
       <c r="AM4" s="10"/>
       <c r="AN4" s="10"/>
-      <c r="AU4" s="13" t="s">
+      <c r="AO4" s="10"/>
+      <c r="AP4" s="10"/>
+      <c r="AW4" s="12" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:47" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="56" t="s">
+    <row r="5" spans="1:49" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="56" t="s">
+      <c r="B5" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="48" t="s">
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="47" t="s">
+      <c r="H5" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="47" t="s">
+      <c r="I5" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="47" t="s">
+      <c r="J5" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="47" t="s">
+      <c r="K5" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="L5" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="M5" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="48" t="s">
+      <c r="N5" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="M5" s="48" t="s">
+      <c r="O5" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="N5" s="48"/>
-      <c r="O5" s="48"/>
-      <c r="P5" s="48"/>
-      <c r="Q5" s="48"/>
-      <c r="R5" s="48"/>
-      <c r="S5" s="48"/>
-      <c r="T5" s="48"/>
-      <c r="U5" s="48"/>
-      <c r="V5" s="48"/>
-      <c r="W5" s="48"/>
-      <c r="X5" s="48"/>
-      <c r="Y5" s="48"/>
-      <c r="Z5" s="48"/>
-      <c r="AA5" s="48" t="s">
+      <c r="P5" s="38"/>
+      <c r="Q5" s="38"/>
+      <c r="R5" s="38"/>
+      <c r="S5" s="38"/>
+      <c r="T5" s="38"/>
+      <c r="U5" s="38"/>
+      <c r="V5" s="38"/>
+      <c r="W5" s="38"/>
+      <c r="X5" s="38"/>
+      <c r="Y5" s="38"/>
+      <c r="Z5" s="38"/>
+      <c r="AA5" s="38"/>
+      <c r="AB5" s="38"/>
+      <c r="AC5" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="AB5" s="48"/>
-      <c r="AC5" s="45"/>
-      <c r="AD5" s="45"/>
-      <c r="AE5" s="48" t="s">
+      <c r="AD5" s="38"/>
+      <c r="AE5" s="39"/>
+      <c r="AF5" s="39"/>
+      <c r="AG5" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="AF5" s="48"/>
-      <c r="AG5" s="48"/>
-      <c r="AH5" s="48" t="s">
+      <c r="AH5" s="38"/>
+      <c r="AI5" s="38"/>
+      <c r="AJ5" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="AI5" s="48"/>
-      <c r="AJ5" s="48"/>
-      <c r="AK5" s="48" t="s">
+      <c r="AK5" s="38"/>
+      <c r="AL5" s="38"/>
+      <c r="AM5" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="AL5" s="45"/>
-      <c r="AM5" s="39" t="s">
+      <c r="AN5" s="39"/>
+      <c r="AO5" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="AN5" s="39"/>
-      <c r="AU5" s="13" t="s">
+      <c r="AP5" s="57"/>
+      <c r="AW5" s="12" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:47" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="57"/>
-      <c r="B6" s="56"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="54"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="45"/>
-      <c r="M6" s="41" t="s">
+    <row r="6" spans="1:49" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="48"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="56"/>
+      <c r="N6" s="39"/>
+      <c r="O6" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="N6" s="41"/>
-      <c r="O6" s="41"/>
-      <c r="P6" s="41"/>
-      <c r="Q6" s="41"/>
-      <c r="R6" s="41"/>
-      <c r="S6" s="41" t="s">
+      <c r="P6" s="44"/>
+      <c r="Q6" s="44"/>
+      <c r="R6" s="44"/>
+      <c r="S6" s="44"/>
+      <c r="T6" s="44"/>
+      <c r="U6" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="T6" s="41"/>
-      <c r="U6" s="41"/>
-      <c r="V6" s="41"/>
-      <c r="W6" s="41"/>
-      <c r="X6" s="41"/>
-      <c r="Y6" s="41"/>
-      <c r="Z6" s="41"/>
-      <c r="AA6" s="41" t="s">
+      <c r="V6" s="44"/>
+      <c r="W6" s="44"/>
+      <c r="X6" s="44"/>
+      <c r="Y6" s="44"/>
+      <c r="Z6" s="44"/>
+      <c r="AA6" s="44"/>
+      <c r="AB6" s="44"/>
+      <c r="AC6" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="AB6" s="41"/>
-      <c r="AC6" s="41" t="s">
+      <c r="AD6" s="44"/>
+      <c r="AE6" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="AD6" s="41"/>
-      <c r="AE6" s="42" t="s">
+      <c r="AF6" s="44"/>
+      <c r="AG6" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="AF6" s="49" t="s">
+      <c r="AH6" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="AG6" s="42" t="s">
+      <c r="AI6" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="AH6" s="42" t="s">
+      <c r="AJ6" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="AI6" s="42" t="s">
+      <c r="AK6" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="AJ6" s="42" t="s">
+      <c r="AL6" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="AK6" s="42" t="s">
+      <c r="AM6" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="AL6" s="42" t="s">
+      <c r="AN6" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="AM6" s="40" t="s">
+      <c r="AO6" s="58" t="s">
         <v>70</v>
       </c>
-      <c r="AN6" s="40" t="s">
+      <c r="AP6" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="AU6" s="13" t="s">
+      <c r="AW6" s="12" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:47" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="57"/>
-      <c r="B7" s="56"/>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
-      <c r="K7" s="59"/>
-      <c r="L7" s="45"/>
-      <c r="M7" s="41" t="s">
+    <row r="7" spans="1:49" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="48"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="56"/>
+      <c r="M7" s="56"/>
+      <c r="N7" s="39"/>
+      <c r="O7" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="N7" s="41"/>
-      <c r="O7" s="41"/>
-      <c r="P7" s="41" t="s">
+      <c r="P7" s="44"/>
+      <c r="Q7" s="44"/>
+      <c r="R7" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="Q7" s="45"/>
-      <c r="R7" s="45"/>
-      <c r="S7" s="41" t="s">
+      <c r="S7" s="39"/>
+      <c r="T7" s="39"/>
+      <c r="U7" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="T7" s="41"/>
-      <c r="U7" s="41"/>
-      <c r="V7" s="41" t="s">
+      <c r="V7" s="44"/>
+      <c r="W7" s="44"/>
+      <c r="X7" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="W7" s="41"/>
-      <c r="X7" s="41"/>
-      <c r="Y7" s="41" t="s">
+      <c r="Y7" s="44"/>
+      <c r="Z7" s="44"/>
+      <c r="AA7" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="Z7" s="41"/>
-      <c r="AA7" s="47" t="s">
+      <c r="AB7" s="44"/>
+      <c r="AC7" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="AB7" s="42" t="s">
+      <c r="AD7" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="AC7" s="47" t="s">
+      <c r="AE7" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="AD7" s="42" t="s">
+      <c r="AF7" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="AE7" s="45"/>
-      <c r="AF7" s="50"/>
-      <c r="AG7" s="45"/>
-      <c r="AH7" s="51"/>
-      <c r="AI7" s="51"/>
-      <c r="AJ7" s="43"/>
-      <c r="AK7" s="46"/>
-      <c r="AL7" s="43"/>
-      <c r="AM7" s="40"/>
-      <c r="AN7" s="40"/>
-      <c r="AU7" s="13" t="s">
+      <c r="AG7" s="39"/>
+      <c r="AH7" s="54"/>
+      <c r="AI7" s="39"/>
+      <c r="AJ7" s="55"/>
+      <c r="AK7" s="55"/>
+      <c r="AL7" s="42"/>
+      <c r="AM7" s="41"/>
+      <c r="AN7" s="42"/>
+      <c r="AO7" s="58"/>
+      <c r="AP7" s="58"/>
+      <c r="AW7" s="12" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:47" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="57"/>
-      <c r="B8" s="56"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="58"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="54"/>
-      <c r="K8" s="59"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="41" t="s">
+    <row r="8" spans="1:49" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="48"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="56"/>
+      <c r="L8" s="56"/>
+      <c r="M8" s="56"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="N8" s="41"/>
-      <c r="O8" s="41" t="s">
+      <c r="P8" s="44"/>
+      <c r="Q8" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="P8" s="41" t="s">
+      <c r="R8" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="Q8" s="45"/>
-      <c r="R8" s="41" t="s">
+      <c r="S8" s="39"/>
+      <c r="T8" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="S8" s="41" t="s">
+      <c r="U8" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="T8" s="41"/>
-      <c r="U8" s="41" t="s">
+      <c r="V8" s="44"/>
+      <c r="W8" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="V8" s="41" t="s">
+      <c r="X8" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="W8" s="41"/>
-      <c r="X8" s="41" t="s">
+      <c r="Y8" s="44"/>
+      <c r="Z8" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="Y8" s="41" t="s">
+      <c r="AA8" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="Z8" s="41" t="s">
+      <c r="AB8" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="AA8" s="45"/>
-      <c r="AB8" s="45"/>
-      <c r="AC8" s="45"/>
-      <c r="AD8" s="45"/>
-      <c r="AE8" s="45"/>
-      <c r="AF8" s="50"/>
-      <c r="AG8" s="45"/>
-      <c r="AH8" s="51"/>
-      <c r="AI8" s="51"/>
-      <c r="AJ8" s="43"/>
-      <c r="AK8" s="46"/>
-      <c r="AL8" s="43"/>
-      <c r="AM8" s="40"/>
-      <c r="AN8" s="40"/>
-      <c r="AU8" s="13" t="s">
+      <c r="AC8" s="39"/>
+      <c r="AD8" s="39"/>
+      <c r="AE8" s="39"/>
+      <c r="AF8" s="39"/>
+      <c r="AG8" s="39"/>
+      <c r="AH8" s="54"/>
+      <c r="AI8" s="39"/>
+      <c r="AJ8" s="55"/>
+      <c r="AK8" s="55"/>
+      <c r="AL8" s="42"/>
+      <c r="AM8" s="41"/>
+      <c r="AN8" s="42"/>
+      <c r="AO8" s="58"/>
+      <c r="AP8" s="58"/>
+      <c r="AW8" s="12" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:47" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="57"/>
-      <c r="B9" s="21" t="s">
+    <row r="9" spans="1:49" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="48"/>
+      <c r="B9" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="F9" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="G9" s="58"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="59"/>
-      <c r="L9" s="45"/>
-      <c r="M9" s="3" t="s">
+      <c r="G9" s="49"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="56"/>
+      <c r="M9" s="56"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="N9" s="22" t="s">
+      <c r="P9" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="O9" s="41"/>
-      <c r="P9" s="3" t="s">
+      <c r="Q9" s="44"/>
+      <c r="R9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="Q9" s="22" t="s">
+      <c r="S9" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="R9" s="41"/>
-      <c r="S9" s="3" t="s">
+      <c r="T9" s="44"/>
+      <c r="U9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="T9" s="22" t="s">
+      <c r="V9" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="U9" s="41"/>
-      <c r="V9" s="3" t="s">
+      <c r="W9" s="44"/>
+      <c r="X9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="W9" s="22" t="s">
+      <c r="Y9" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="X9" s="41"/>
-      <c r="Y9" s="41"/>
-      <c r="Z9" s="41"/>
-      <c r="AA9" s="45"/>
-      <c r="AB9" s="45"/>
-      <c r="AC9" s="45"/>
-      <c r="AD9" s="45"/>
-      <c r="AE9" s="45"/>
-      <c r="AF9" s="45"/>
-      <c r="AG9" s="45"/>
-      <c r="AH9" s="45"/>
-      <c r="AI9" s="45"/>
-      <c r="AJ9" s="44"/>
-      <c r="AK9" s="45"/>
-      <c r="AL9" s="44"/>
-      <c r="AM9" s="40"/>
-      <c r="AN9" s="40"/>
-      <c r="AU9" s="13" t="s">
+      <c r="Z9" s="44"/>
+      <c r="AA9" s="44"/>
+      <c r="AB9" s="44"/>
+      <c r="AC9" s="39"/>
+      <c r="AD9" s="39"/>
+      <c r="AE9" s="39"/>
+      <c r="AF9" s="39"/>
+      <c r="AG9" s="39"/>
+      <c r="AH9" s="39"/>
+      <c r="AI9" s="39"/>
+      <c r="AJ9" s="39"/>
+      <c r="AK9" s="39"/>
+      <c r="AL9" s="43"/>
+      <c r="AM9" s="39"/>
+      <c r="AN9" s="43"/>
+      <c r="AO9" s="58"/>
+      <c r="AP9" s="58"/>
+      <c r="AW9" s="12" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:47" s="15" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="11"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
+    <row r="10" spans="1:49" s="14" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="37"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="37"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
-      <c r="O10" s="24"/>
+      <c r="O10" s="3"/>
       <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="4"/>
+      <c r="Q10" s="25"/>
+      <c r="R10" s="3"/>
       <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="3"/>
       <c r="V10" s="3"/>
-      <c r="W10" s="3"/>
-      <c r="X10" s="25"/>
-      <c r="Y10" s="26"/>
-      <c r="Z10" s="4"/>
-      <c r="AA10" s="3"/>
-      <c r="AB10" s="3"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="26"/>
+      <c r="AA10" s="27"/>
+      <c r="AB10" s="4"/>
       <c r="AC10" s="3"/>
       <c r="AD10" s="3"/>
       <c r="AE10" s="3"/>
-      <c r="AF10" s="24"/>
-      <c r="AG10" s="24"/>
-      <c r="AH10" s="27"/>
-      <c r="AI10" s="27"/>
+      <c r="AF10" s="3"/>
+      <c r="AG10" s="3"/>
+      <c r="AH10" s="25"/>
+      <c r="AI10" s="25"/>
       <c r="AJ10" s="28"/>
-      <c r="AK10" s="29"/>
-      <c r="AL10" s="3"/>
-      <c r="AM10" s="37"/>
-      <c r="AN10" s="37"/>
-      <c r="AU10" s="16" t="s">
+      <c r="AK10" s="28"/>
+      <c r="AL10" s="29"/>
+      <c r="AM10" s="30"/>
+      <c r="AN10" s="3"/>
+      <c r="AO10" s="20"/>
+      <c r="AP10" s="20"/>
+      <c r="AW10" s="15" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:47" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="55" t="s">
+    <row r="11" spans="1:49" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="55"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
       <c r="H11" s="8" t="s">
         <v>35</v>
       </c>
       <c r="I11" s="31"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
       <c r="O11" s="8"/>
@@ -1683,18 +1720,20 @@
       <c r="AJ11" s="8"/>
       <c r="AK11" s="8"/>
       <c r="AL11" s="8"/>
-      <c r="AM11" s="10"/>
-      <c r="AN11" s="10"/>
-      <c r="AU11" s="13" t="s">
+      <c r="AM11" s="8"/>
+      <c r="AN11" s="8"/>
+      <c r="AO11" s="10"/>
+      <c r="AP11" s="10"/>
+      <c r="AW11" s="12" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="19"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
+    <row r="12" spans="1:49" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
       <c r="F12" s="5"/>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
@@ -1728,29 +1767,31 @@
       <c r="AJ12" s="8"/>
       <c r="AK12" s="8"/>
       <c r="AL12" s="8"/>
-      <c r="AM12" s="10"/>
-      <c r="AN12" s="10"/>
-      <c r="AU12" s="13" t="s">
+      <c r="AM12" s="8"/>
+      <c r="AN12" s="8"/>
+      <c r="AO12" s="10"/>
+      <c r="AP12" s="10"/>
+      <c r="AW12" s="12" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="19"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
+    <row r="13" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
       <c r="F13" s="5"/>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
-      <c r="K13" s="18" t="s">
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="L13" s="5"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
+      <c r="N13" s="5"/>
       <c r="O13" s="8"/>
       <c r="P13" s="8"/>
       <c r="Q13" s="8"/>
@@ -1775,31 +1816,33 @@
       <c r="AJ13" s="8"/>
       <c r="AK13" s="8"/>
       <c r="AL13" s="8"/>
-      <c r="AM13" s="10"/>
-      <c r="AN13" s="10"/>
-      <c r="AU13" s="13" t="s">
+      <c r="AM13" s="8"/>
+      <c r="AN13" s="8"/>
+      <c r="AO13" s="10"/>
+      <c r="AP13" s="10"/>
+      <c r="AW13" s="12" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:47" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:49" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="32" t="s">
         <v>36</v>
       </c>
       <c r="B14" s="33"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
       <c r="F14" s="5"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="18" t="s">
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="L14" s="5"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
+      <c r="N14" s="5"/>
       <c r="O14" s="8"/>
       <c r="P14" s="8"/>
       <c r="Q14" s="8"/>
@@ -1824,18 +1867,20 @@
       <c r="AJ14" s="8"/>
       <c r="AK14" s="8"/>
       <c r="AL14" s="8"/>
-      <c r="AM14" s="10"/>
-      <c r="AN14" s="10"/>
-      <c r="AU14" s="13" t="s">
+      <c r="AM14" s="8"/>
+      <c r="AN14" s="8"/>
+      <c r="AO14" s="10"/>
+      <c r="AP14" s="10"/>
+      <c r="AW14" s="12" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:47" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="19"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
+    <row r="15" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="18"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
       <c r="F15" s="5"/>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
@@ -1843,8 +1888,8 @@
       <c r="J15" s="34"/>
       <c r="K15" s="34"/>
       <c r="L15" s="34"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
+      <c r="M15" s="34"/>
+      <c r="N15" s="34"/>
       <c r="O15" s="8"/>
       <c r="P15" s="8"/>
       <c r="Q15" s="8"/>
@@ -1869,25 +1914,27 @@
       <c r="AJ15" s="8"/>
       <c r="AK15" s="8"/>
       <c r="AL15" s="8"/>
-      <c r="AM15" s="10"/>
-      <c r="AN15" s="10"/>
-      <c r="AU15" s="13" t="s">
+      <c r="AM15" s="8"/>
+      <c r="AN15" s="8"/>
+      <c r="AO15" s="10"/>
+      <c r="AP15" s="10"/>
+      <c r="AW15" s="12" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:47" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="19"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
+    <row r="16" spans="1:49" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="18"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
       <c r="F16" s="5"/>
       <c r="G16" s="8"/>
       <c r="H16" s="35" t="s">
         <v>37</v>
       </c>
       <c r="I16" s="8"/>
-      <c r="J16" s="38"/>
+      <c r="J16" s="36"/>
       <c r="K16" s="36"/>
       <c r="L16" s="36"/>
       <c r="M16" s="36"/>
@@ -1899,8 +1946,8 @@
       <c r="S16" s="36"/>
       <c r="T16" s="36"/>
       <c r="U16" s="36"/>
-      <c r="V16" s="8"/>
-      <c r="W16" s="8"/>
+      <c r="V16" s="36"/>
+      <c r="W16" s="36"/>
       <c r="X16" s="8"/>
       <c r="Y16" s="8"/>
       <c r="Z16" s="8"/>
@@ -1916,27 +1963,29 @@
       <c r="AJ16" s="8"/>
       <c r="AK16" s="8"/>
       <c r="AL16" s="8"/>
-      <c r="AM16" s="10"/>
-      <c r="AN16" s="10"/>
-      <c r="AU16" s="13" t="s">
+      <c r="AM16" s="8"/>
+      <c r="AN16" s="8"/>
+      <c r="AO16" s="10"/>
+      <c r="AP16" s="10"/>
+      <c r="AW16" s="12" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
       <c r="F17" s="5"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
       <c r="O17" s="9"/>
       <c r="P17" s="9"/>
       <c r="Q17" s="9"/>
@@ -1944,8 +1993,8 @@
       <c r="S17" s="9"/>
       <c r="T17" s="9"/>
       <c r="U17" s="9"/>
-      <c r="V17" s="6"/>
-      <c r="W17" s="6"/>
+      <c r="V17" s="9"/>
+      <c r="W17" s="9"/>
       <c r="X17" s="6"/>
       <c r="Y17" s="6"/>
       <c r="Z17" s="6"/>
@@ -1961,23 +2010,25 @@
       <c r="AJ17" s="6"/>
       <c r="AK17" s="6"/>
       <c r="AL17" s="6"/>
-      <c r="AU17" s="13" t="s">
+      <c r="AM17" s="6"/>
+      <c r="AN17" s="6"/>
+      <c r="AW17" s="12" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
       <c r="F18" s="5"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
@@ -2004,13 +2055,13 @@
       <c r="AJ18" s="6"/>
       <c r="AK18" s="6"/>
       <c r="AL18" s="6"/>
-      <c r="AU18" s="13" t="s">
+      <c r="AM18" s="6"/>
+      <c r="AN18" s="6"/>
+      <c r="AW18" s="12" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
+    <row r="19" spans="1:49" x14ac:dyDescent="0.2">
       <c r="O19" s="6"/>
       <c r="P19" s="6"/>
       <c r="Q19" s="6"/>
@@ -2035,130 +2086,139 @@
       <c r="AJ19" s="6"/>
       <c r="AK19" s="6"/>
       <c r="AL19" s="6"/>
-      <c r="AU19" s="13" t="s">
+      <c r="AM19" s="6"/>
+      <c r="AN19" s="6"/>
+      <c r="AW19" s="12" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="AU20" s="13" t="s">
+    <row r="20" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="AW20" s="12" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="AU21" s="13" t="s">
+    <row r="21" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="AW21" s="12" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="AU22" s="13" t="s">
+    <row r="22" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="AW22" s="12" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="AU23" s="13" t="s">
+    <row r="23" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="AW23" s="12" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="AU24" s="13" t="s">
+    <row r="24" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="AW24" s="12" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="AU25" s="13" t="s">
+    <row r="25" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="AW25" s="12" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="AU26" s="13" t="s">
+    <row r="26" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="AW26" s="12" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="AU27" s="13" t="s">
+    <row r="27" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="AW27" s="12" t="s">
         <v>62</v>
       </c>
     </row>
   </sheetData>
   <protectedRanges>
-    <protectedRange sqref="A10:AL10" name="інформація по заявці"/>
-    <protectedRange sqref="W10 F11:G11 I11:J11 B14:E14 J15:L16" name="інформація по фірмі"/>
+    <protectedRange sqref="A10:M10 C11 I11 B14 J15:L16 O10:AP10" name="інформація по заявці"/>
+    <protectedRange sqref="N10" name="інформація по заявці_1"/>
   </protectedRanges>
-  <mergeCells count="50">
-    <mergeCell ref="B3:L3"/>
-    <mergeCell ref="I1:L1"/>
+  <mergeCells count="52">
+    <mergeCell ref="L5:L9"/>
+    <mergeCell ref="K5:K9"/>
+    <mergeCell ref="AO5:AP5"/>
+    <mergeCell ref="AO6:AO9"/>
+    <mergeCell ref="AP6:AP9"/>
+    <mergeCell ref="O5:AB5"/>
+    <mergeCell ref="AC5:AF5"/>
+    <mergeCell ref="AG5:AI5"/>
+    <mergeCell ref="AJ5:AL5"/>
+    <mergeCell ref="AL6:AL9"/>
+    <mergeCell ref="AF7:AF9"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="W8:W9"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="Z8:Z9"/>
+    <mergeCell ref="M5:M9"/>
+    <mergeCell ref="B3:N3"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="I5:I9"/>
     <mergeCell ref="J5:J9"/>
+    <mergeCell ref="AM5:AN5"/>
+    <mergeCell ref="O6:T6"/>
+    <mergeCell ref="U6:AB6"/>
+    <mergeCell ref="AC6:AD6"/>
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="AG6:AG9"/>
+    <mergeCell ref="AH6:AH9"/>
+    <mergeCell ref="AI6:AI9"/>
+    <mergeCell ref="AJ6:AJ9"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="AK6:AK9"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="B5:F8"/>
     <mergeCell ref="A5:A9"/>
     <mergeCell ref="G5:G9"/>
     <mergeCell ref="H5:H9"/>
-    <mergeCell ref="K5:K9"/>
-    <mergeCell ref="L5:L9"/>
-    <mergeCell ref="AG6:AG9"/>
-    <mergeCell ref="AH6:AH9"/>
-    <mergeCell ref="AI6:AI9"/>
-    <mergeCell ref="M5:Z5"/>
-    <mergeCell ref="AA5:AD5"/>
-    <mergeCell ref="AE5:AG5"/>
-    <mergeCell ref="AH5:AJ5"/>
-    <mergeCell ref="M6:R6"/>
-    <mergeCell ref="S6:Z6"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="AC6:AD6"/>
-    <mergeCell ref="AE6:AE9"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="Y8:Y9"/>
-    <mergeCell ref="Z8:Z9"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="P7:R7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="V7:X7"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="AM5:AN5"/>
+    <mergeCell ref="N5:N9"/>
     <mergeCell ref="AM6:AM9"/>
     <mergeCell ref="AN6:AN9"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="U8:U9"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="X8:X9"/>
-    <mergeCell ref="AJ6:AJ9"/>
+    <mergeCell ref="O7:Q7"/>
+    <mergeCell ref="R7:T7"/>
+    <mergeCell ref="U7:W7"/>
+    <mergeCell ref="X7:Z7"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="AC7:AC9"/>
     <mergeCell ref="AD7:AD9"/>
-    <mergeCell ref="AK6:AK9"/>
-    <mergeCell ref="AL6:AL9"/>
-    <mergeCell ref="AA7:AA9"/>
-    <mergeCell ref="AB7:AB9"/>
-    <mergeCell ref="AC7:AC9"/>
-    <mergeCell ref="AK5:AL5"/>
-    <mergeCell ref="AF6:AF9"/>
+    <mergeCell ref="AE7:AE9"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="AA8:AA9"/>
+    <mergeCell ref="AB8:AB9"/>
   </mergeCells>
-  <conditionalFormatting sqref="A10:L10 C11 I11 B14 J15:J16">
-    <cfRule type="containsBlanks" dxfId="1" priority="2">
+  <conditionalFormatting sqref="A10:M10 C11 I11 B14 J15:L16">
+    <cfRule type="containsBlanks" dxfId="2" priority="3">
       <formula>LEN(TRIM(A10))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M10:AN10">
-    <cfRule type="containsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(M10))=0</formula>
+  <conditionalFormatting sqref="O10:AP10">
+    <cfRule type="containsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(O10))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Увага!!!" error="Ви ввели невідповідний район, виберіть район із випадаючого списку" prompt="Виберіть із випадаючого списку" sqref="B10">
-      <formula1>$AU$3:$AU$27</formula1>
+  <conditionalFormatting sqref="N10">
+    <cfRule type="containsBlanks" dxfId="0" priority="1">
+      <formula>LEN(TRIM(N10))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Ви ввели невідповідний район" prompt="Виберіть район із випадаючого списку" sqref="B10">
+      <formula1>$AW$3:$AW$27</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Увага!!!" error="Виберіть варіант із випадаючого списку; якщо нічого не підійшло - залиште клітинку пустою, і напишіть в емейлі призначення." prompt="Виберіть із випадаючого списку." sqref="L10">
+    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Увага!!!" error="Виберіть варіант із випадаючого списку; якщо нічого не підійшло - залиште клітинку пустою, і напишіть в емейлі призначення." prompt="Виберіть із випадаючого списку." sqref="N10">
       <formula1>"реконструкція,внутрішнє,внутрішнє багатоквартирний будинок,зовнішнє нестандартне,зовнішнє стандартне,внутрішньомайданчиковий газопровід,розподільчий газопровід,міжселищний газопровід,захист газопроводу"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.22" right="0.5" top="0.53" bottom="1" header="0.28000000000000003" footer="0.5"/>
-  <pageSetup paperSize="9" scale="84" orientation="landscape" horizontalDpi="4294967293" verticalDpi="360" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="77" orientation="landscape" horizontalDpi="4294967293" verticalDpi="360" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <colBreaks count="1" manualBreakCount="1">
-    <brk id="12" max="15" man="1"/>
+    <brk id="14" max="15" man="1"/>
   </colBreaks>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
